--- a/RedCross/REST API.xlsx
+++ b/RedCross/REST API.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>로그인 및 회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -26,46 +26,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/logIn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>홈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>작업 게시판</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>글쓰기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/work_board</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/job/work_board/write</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>글 읽기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/home/job/work_board/article/{index}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -74,7 +42,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>POST</t>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://redcross.run.goorm.site/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://redcross.run.goorm.site/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://redcross.run.goorm.site/home</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://redcross.run.goorm.site/home/list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://redcross.run.goorm.site/home/list/write</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://redcross.run.goorm.site/home/list/{index}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>글쓰기 창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +97,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -116,18 +129,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,80 +446,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>14</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B5" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
